--- a/os-journal/docs/Book1.xlsx
+++ b/os-journal/docs/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reece\Documents\GitHub\WILR96.github.io\os-journal\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{963C5627-3BCB-43FD-BE71-75C3DAE0E1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8908A068-4773-4D1B-AE9E-EFA3581B53FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14730" windowHeight="15855" xr2:uid="{9558FD33-E1CF-4CA0-9B02-4CF5A6E2538D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9558FD33-E1CF-4CA0-9B02-4CF5A6E2538D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
   <si>
     <t>-- Load Averages --</t>
   </si>
@@ -95,18 +95,6 @@
     <t>Disk Read GB/s</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>line</t>
   </si>
   <si>
@@ -136,12 +124,27 @@
   <si>
     <t>LuantiServer</t>
   </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>iperf4</t>
+  </si>
+  <si>
+    <t>iperf5</t>
+  </si>
+  <si>
+    <t>iperf6</t>
+  </si>
+  <si>
+    <t>iperf7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +156,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -713,7 +722,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -828,6 +837,2064 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$141</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Load 5min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$142:$D$146</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LuantiServer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SQLite</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iperf3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ffmpeg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$142:$F$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.20600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6519999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7749-4DF9-877C-3CA41A7E5438}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="961065247"/>
+        <c:axId val="961065727"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="961065247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="961065727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="961065727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="961065247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$141</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Load 15min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$142:$D$146</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LuantiServer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SQLite</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iperf3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ffmpeg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$142:$G$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.20600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4627-4549-8F95-7E2F451FC4E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1512742703"/>
+        <c:axId val="1512740783"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1512742703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1512740783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1512740783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1512742703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$141</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU Idle (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$142:$D$146</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LuantiServer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SQLite</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iperf3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ffmpeg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$142:$H$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.920000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.739999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF31-471C-BC0D-4208B0071E9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1447419215"/>
+        <c:axId val="1447423055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1447419215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1447423055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1447423055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1447419215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$141</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mem Used (MiB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-12D7-446E-9CBA-17BA606E72CF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-12D7-446E-9CBA-17BA606E72CF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-12D7-446E-9CBA-17BA606E72CF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-12D7-446E-9CBA-17BA606E72CF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-12D7-446E-9CBA-17BA606E72CF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$142:$D$146</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LuantiServer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SQLite</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iperf3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ffmpeg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$142:$I$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>322.35999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>337.21999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>319.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>539.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1365.1399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D95A-4395-B7F9-3AD6D86A35D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$141</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disk Write MB/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$142:$D$146</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LuantiServer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SQLite</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iperf3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ffmpeg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$142:$K$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.259999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6AB5-4F01-83CA-3BFAED1A16A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1313366287"/>
+        <c:axId val="1313366767"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1313366287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1313366767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1313366767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1313366287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$141</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disk Read GB/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$142:$D$146</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LuantiServer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SQLite</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iperf3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ffmpeg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$142:$L$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80619999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83420000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3600-45B4-BD20-11466DCD3895}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1510844975"/>
+        <c:axId val="1510843055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1510844975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1510843055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1510843055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1510844975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$141</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp (°C)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$142:$D$146</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LuantiServer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SQLite</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iperf3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ffmpeg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$142:$M$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.679999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B3F-4470-B5CC-A065F023D5C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1501075295"/>
+        <c:axId val="1501077215"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1501075295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1501077215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1501077215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1501075295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -898,7 +2965,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-GB"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1066,7 +3133,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1142,7 +3208,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1878,7 +3944,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2338,7 +4404,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2904,7 +4970,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3684,7 +5750,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3946,15 +6012,15 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$113</c:f>
+              <c:f>Sheet1!$E$141</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3965,7 +6031,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3975,126 +6041,54 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$114:$D$154</c:f>
+              <c:f>Sheet1!$D$142:$D$146</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>LuantiServer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SQLite</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iperf3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Ffmpeg</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>iperf3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>LuantiServer</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="4">
                   <c:v>Memcached</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>SQLite</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$114:$F$154</c:f>
+              <c:f>Sheet1!$E$142:$E$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.18</c:v>
+                  <c:v>0.30599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.99</c:v>
+                  <c:v>0.81600000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.55</c:v>
+                  <c:v>1.8780000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.33</c:v>
+                  <c:v>4.7839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.87</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.31</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.83</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.35</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.87</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11.98</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13.81</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.64</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.17</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.2</c:v>
+                  <c:v>10.234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2044-4508-8092-203AE726EA5B}"/>
+              <c16:uniqueId val="{00000000-3C0C-48FC-B016-AB6B76206EAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4106,191 +6100,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="905172927"/>
-        <c:axId val="905171007"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$113</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Iteration</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$114:$D$154</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="37"/>
-                      <c:pt idx="0">
-                        <c:v>Ffmpeg</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>iperf3</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>LuantiServer</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>Memcached</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>SQLite</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$114:$E$154</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="41"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>5</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-2044-4508-8092-203AE726EA5B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:gapWidth val="182"/>
+        <c:axId val="1447418255"/>
+        <c:axId val="1447419695"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="905172927"/>
+        <c:axId val="1447418255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4328,7 +6148,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="905171007"/>
+        <c:crossAx val="1447419695"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4336,12 +6156,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="905171007"/>
+        <c:axId val="1447419695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4387,7 +6207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="905172927"/>
+        <c:crossAx val="1447418255"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4399,37 +6219,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4468,6 +6257,286 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5343,8 +7412,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5548,22 +7617,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5668,8 +7738,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5801,19 +7871,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5846,8 +7917,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5955,11 +8026,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5970,11 +8036,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6006,9 +8067,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6064,22 +8122,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6184,8 +8243,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6317,19 +8376,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6362,8 +8422,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6471,11 +8531,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6486,11 +8541,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6522,9 +8572,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6878,8 +8925,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6906,8 +8953,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6936,7 +8983,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6987,6 +9034,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6997,18 +9051,25 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7043,7 +9104,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7364,17 +9425,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7394,8 +9444,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7503,11 +9553,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7518,11 +9563,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7554,9 +9594,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7612,22 +9649,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7732,8 +9770,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7865,19 +9903,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7910,8 +9949,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8019,11 +10058,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8034,11 +10068,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8070,9 +10099,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8426,8 +10452,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8454,8 +10480,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8556,7 +10582,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8588,10 +10614,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8631,23 +10657,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8752,8 +10777,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8885,20 +10910,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8912,17 +10936,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8942,7 +10955,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9413,6 +11426,3607 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9737,23 +15351,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5602</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>180415</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>554183</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>65809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>341779</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>66115</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>588819</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>142009</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02833CB7-072A-00CC-FD5A-3C19776530DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ACC1C46-0246-48FA-016C-01802AC8AD8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9766,6 +15380,258 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>536864</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>65809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>142009</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF49D1A-7AA2-D8B6-13FC-F9FFB17DF14A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>519545</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>48490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>554181</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>315190</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C6283C-9266-3111-45CF-C1A83F73791C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>519546</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>516082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>20782</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5DCF753-3B0A-01A9-F923-5C5BCDFC3C0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>519546</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>187036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>72736</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71BB1C5-4CFA-1059-E0A0-47F7E3C40CED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>346363</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>48490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>329045</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>124690</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E37BCC-14E1-2253-416F-A5D8A3611B0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>159327</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7C374D-E14E-050F-EBFC-59EE674AC218}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>48491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>502227</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529D4BBE-6322-A161-35F9-DD7E11C27B47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10091,20 +15957,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B925FEE3-6AD0-4DD3-B301-749D5D8E2F09}">
-  <dimension ref="A4:S154"/>
+  <dimension ref="A4:W149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113:F154"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
         <v>1</v>
@@ -10112,7 +15991,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s">
         <v>5</v>
@@ -10347,7 +16226,7 @@
     </row>
     <row r="46" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="5:7" x14ac:dyDescent="0.25">
@@ -10355,10 +16234,10 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="5:7" x14ac:dyDescent="0.25">
@@ -10418,7 +16297,7 @@
     </row>
     <row r="67" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="5:7" x14ac:dyDescent="0.25">
@@ -10426,10 +16305,10 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="5:7" x14ac:dyDescent="0.25">
@@ -10489,7 +16368,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -10684,7 +16563,10 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="113" spans="4:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="D113" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E113" s="1" t="s">
         <v>8</v>
       </c>
@@ -10715,546 +16597,812 @@
       <c r="N113" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
     </row>
-    <row r="114" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D114" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E114" s="2">
         <v>1</v>
       </c>
       <c r="F114" s="2">
-        <v>1.18</v>
+        <v>0.17</v>
       </c>
       <c r="G114" s="2">
-        <v>1.95</v>
+        <v>0.06</v>
       </c>
       <c r="H114" s="2">
-        <v>0.96</v>
+        <v>0.16</v>
       </c>
       <c r="I114" s="2">
-        <v>97.7</v>
+        <v>95.6</v>
       </c>
       <c r="J114" s="2">
-        <v>308.89999999999998</v>
+        <v>329.2</v>
       </c>
       <c r="K114" s="2">
         <v>0</v>
       </c>
       <c r="L114" s="2">
-        <v>27.2</v>
+        <v>16.3</v>
       </c>
       <c r="M114" s="2">
-        <v>0.97299999999999998</v>
+        <v>1.4</v>
       </c>
       <c r="N114" s="2">
-        <v>59.4</v>
-      </c>
+        <v>46.7</v>
+      </c>
+      <c r="R114" s="1"/>
     </row>
-    <row r="115" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D115" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E115" s="2">
         <v>2</v>
       </c>
       <c r="F115" s="2">
-        <v>4.99</v>
+        <v>0.3</v>
       </c>
       <c r="G115" s="2">
-        <v>3.01</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H115" s="2">
-        <v>1.4</v>
+        <v>0.18</v>
       </c>
       <c r="I115" s="2">
-        <v>6.8</v>
+        <v>94</v>
       </c>
       <c r="J115" s="2">
-        <v>597.70000000000005</v>
+        <v>317.60000000000002</v>
       </c>
       <c r="K115" s="2">
         <v>0</v>
       </c>
       <c r="L115" s="2">
-        <v>12.1</v>
+        <v>15.7</v>
       </c>
       <c r="M115" s="2">
         <v>1</v>
       </c>
       <c r="N115" s="2">
-        <v>72</v>
-      </c>
+        <v>46.2</v>
+      </c>
+      <c r="R115" s="1"/>
     </row>
-    <row r="116" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D116" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E116" s="2">
         <v>3</v>
       </c>
       <c r="F116" s="2">
-        <v>5.55</v>
+        <v>0.37</v>
       </c>
       <c r="G116" s="2">
-        <v>3.71</v>
+        <v>0.21</v>
       </c>
       <c r="H116" s="2">
-        <v>1.78</v>
+        <v>0.2</v>
       </c>
       <c r="I116" s="2">
-        <v>22.7</v>
+        <v>100</v>
       </c>
       <c r="J116" s="2">
-        <v>594.1</v>
+        <v>331.9</v>
       </c>
       <c r="K116" s="2">
         <v>0</v>
       </c>
       <c r="L116" s="2">
-        <v>18.899999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="M116" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="N116" s="2">
-        <v>64.2</v>
-      </c>
+        <v>49.6</v>
+      </c>
+      <c r="R116" s="1"/>
     </row>
-    <row r="117" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D117" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E117" s="2">
         <v>4</v>
       </c>
       <c r="F117" s="2">
-        <v>5.33</v>
+        <v>0.42</v>
       </c>
       <c r="G117" s="2">
-        <v>3.95</v>
+        <v>0.31</v>
       </c>
       <c r="H117" s="2">
-        <v>2.0099999999999998</v>
+        <v>0.24</v>
       </c>
       <c r="I117" s="2">
-        <v>19.600000000000001</v>
+        <v>97.9</v>
       </c>
       <c r="J117" s="2">
-        <v>602</v>
+        <v>315.7</v>
       </c>
       <c r="K117" s="2">
         <v>0</v>
       </c>
       <c r="L117" s="2">
-        <v>13.3</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="M117" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N117" s="2">
-        <v>75.400000000000006</v>
-      </c>
+        <v>45.2</v>
+      </c>
+      <c r="R117" s="1"/>
     </row>
-    <row r="118" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D118" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E118" s="2">
         <v>5</v>
       </c>
       <c r="F118" s="2">
-        <v>6.87</v>
+        <v>0.27</v>
       </c>
       <c r="G118" s="2">
-        <v>4.71</v>
+        <v>0.31</v>
       </c>
       <c r="H118" s="2">
-        <v>2.4300000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="I118" s="2">
-        <v>12.8</v>
+        <v>100</v>
       </c>
       <c r="J118" s="2">
-        <v>595.9</v>
+        <v>317.39999999999998</v>
       </c>
       <c r="K118" s="2">
         <v>0</v>
       </c>
       <c r="L118" s="2">
-        <v>14.2</v>
+        <v>12.1</v>
       </c>
       <c r="M118" s="2">
-        <v>0.95899999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N118" s="2">
-        <v>76.900000000000006</v>
-      </c>
+        <v>44.3</v>
+      </c>
+      <c r="R118" s="1"/>
     </row>
-    <row r="122" spans="4:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="E122" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="119" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D119" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="2">
+        <v>0</v>
+      </c>
+      <c r="G119" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H119" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="I119" s="2">
+        <v>100</v>
+      </c>
+      <c r="J119" s="2">
+        <v>318.89999999999998</v>
+      </c>
+      <c r="K119" s="2">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="M119" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="N119" s="2">
+        <v>40.9</v>
+      </c>
+      <c r="R119" s="1"/>
     </row>
-    <row r="123" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D120" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120" s="2">
+        <v>2</v>
+      </c>
+      <c r="F120" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="G120" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="H120" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="I120" s="2">
+        <v>73.3</v>
+      </c>
+      <c r="J120" s="2">
+        <v>340.9</v>
+      </c>
+      <c r="K120" s="2">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="M120" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="N120" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="R120" s="1"/>
+    </row>
+    <row r="121" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D121" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" s="2">
+        <v>3</v>
+      </c>
+      <c r="F121" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="G121" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H121" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="I121" s="2">
+        <v>72.7</v>
+      </c>
+      <c r="J121" s="2">
+        <v>355.2</v>
+      </c>
+      <c r="K121" s="2">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="M121" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="N121" s="2">
+        <v>47.2</v>
+      </c>
+      <c r="R121" s="1"/>
+    </row>
+    <row r="122" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D122" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" s="2">
+        <v>4</v>
+      </c>
+      <c r="F122" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G122" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="H122" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="I122" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="J122" s="2">
+        <v>324.60000000000002</v>
+      </c>
+      <c r="K122" s="2">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="M122" s="2">
+        <v>1</v>
+      </c>
+      <c r="N122" s="2">
+        <v>41.3</v>
+      </c>
+      <c r="R122" s="1"/>
+    </row>
+    <row r="123" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D123" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E123" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F123" s="2">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="G123" s="2">
-        <v>0.61</v>
+        <v>0.81</v>
       </c>
       <c r="H123" s="2">
-        <v>0.68</v>
+        <v>0.83</v>
       </c>
       <c r="I123" s="2">
-        <v>45.7</v>
+        <v>71.7</v>
       </c>
       <c r="J123" s="2">
-        <v>318.3</v>
+        <v>346.5</v>
       </c>
       <c r="K123" s="2">
         <v>0</v>
       </c>
       <c r="L123" s="2">
-        <v>16.3</v>
+        <v>12</v>
       </c>
       <c r="M123" s="2">
-        <v>0.89500000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N123" s="2">
-        <v>55.5</v>
+        <v>43.3</v>
       </c>
     </row>
-    <row r="124" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D124" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E124" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" s="2">
-        <v>1.83</v>
+        <v>1.31</v>
       </c>
       <c r="G124" s="2">
-        <v>0.94</v>
+        <v>0.61</v>
       </c>
       <c r="H124" s="2">
-        <v>0.79</v>
+        <v>0.68</v>
       </c>
       <c r="I124" s="2">
-        <v>46.8</v>
+        <v>45.7</v>
       </c>
       <c r="J124" s="2">
-        <v>319.8</v>
+        <v>318.3</v>
       </c>
       <c r="K124" s="2">
         <v>0</v>
       </c>
       <c r="L124" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="M124" s="2">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="N124" s="2">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="125" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D125" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M124" s="2">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="N124" s="2">
-        <v>60.3</v>
-      </c>
-    </row>
-    <row r="125" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E125" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F125" s="2">
-        <v>2.0299999999999998</v>
+        <v>1.83</v>
       </c>
       <c r="G125" s="2">
-        <v>1.2</v>
+        <v>0.94</v>
       </c>
       <c r="H125" s="2">
-        <v>0.9</v>
+        <v>0.79</v>
       </c>
       <c r="I125" s="2">
-        <v>48.9</v>
+        <v>46.8</v>
       </c>
       <c r="J125" s="2">
-        <v>320.2</v>
+        <v>319.8</v>
       </c>
       <c r="K125" s="2">
         <v>0</v>
       </c>
       <c r="L125" s="2">
-        <v>11.9</v>
+        <v>30</v>
       </c>
       <c r="M125" s="2">
-        <v>0.879</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="N125" s="2">
-        <v>61.3</v>
+        <v>60.3</v>
       </c>
     </row>
-    <row r="126" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D126" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E126" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F126" s="2">
-        <v>2.35</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="G126" s="2">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="H126" s="2">
-        <v>1.04</v>
+        <v>0.9</v>
       </c>
       <c r="I126" s="2">
-        <v>44.7</v>
+        <v>48.9</v>
       </c>
       <c r="J126" s="2">
-        <v>324.39999999999998</v>
+        <v>320.2</v>
       </c>
       <c r="K126" s="2">
         <v>0</v>
       </c>
       <c r="L126" s="2">
-        <v>16.8</v>
+        <v>11.9</v>
       </c>
       <c r="M126" s="2">
-        <v>0.89300000000000002</v>
+        <v>0.879</v>
       </c>
       <c r="N126" s="2">
-        <v>63.3</v>
+        <v>61.3</v>
       </c>
     </row>
-    <row r="127" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D127" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E127" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F127" s="2">
-        <v>1.87</v>
+        <v>2.35</v>
       </c>
       <c r="G127" s="2">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H127" s="2">
-        <v>1.0900000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="I127" s="2">
-        <v>48.8</v>
+        <v>44.7</v>
       </c>
       <c r="J127" s="2">
-        <v>313.8</v>
+        <v>324.39999999999998</v>
       </c>
       <c r="K127" s="2">
         <v>0</v>
       </c>
       <c r="L127" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="M127" s="2">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="N127" s="2">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="128" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D128" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E128" s="2">
+        <v>5</v>
+      </c>
+      <c r="F128" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="G128" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="H128" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I128" s="2">
+        <v>48.8</v>
+      </c>
+      <c r="J128" s="2">
+        <v>313.8</v>
+      </c>
+      <c r="K128" s="2">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2">
         <v>13.9</v>
       </c>
-      <c r="M127" s="2">
+      <c r="M128" s="2">
         <v>0.68</v>
       </c>
-      <c r="N127" s="2">
+      <c r="N128" s="2">
         <v>61.8</v>
       </c>
     </row>
-    <row r="131" spans="4:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="E131" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L131" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M131" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N131" s="1" t="s">
-        <v>10</v>
+    <row r="129" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D129" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1</v>
+      </c>
+      <c r="F129" s="2">
+        <v>1.18</v>
+      </c>
+      <c r="G129" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="H129" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="I129" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="J129" s="2">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="K129" s="2">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="M129" s="2">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="N129" s="2">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="130" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D130" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E130" s="2">
+        <v>2</v>
+      </c>
+      <c r="F130" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="G130" s="2">
+        <v>3.01</v>
+      </c>
+      <c r="H130" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="I130" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="J130" s="2">
+        <v>597.70000000000005</v>
+      </c>
+      <c r="K130" s="2">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="M130" s="2">
+        <v>1</v>
+      </c>
+      <c r="N130" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="131" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D131" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E131" s="2">
+        <v>3</v>
+      </c>
+      <c r="F131" s="2">
+        <v>5.55</v>
+      </c>
+      <c r="G131" s="2">
+        <v>3.71</v>
+      </c>
+      <c r="H131" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="I131" s="2">
+        <v>22.7</v>
+      </c>
+      <c r="J131" s="2">
+        <v>594.1</v>
+      </c>
+      <c r="K131" s="2">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M131" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N131" s="2">
+        <v>64.2</v>
       </c>
     </row>
     <row r="132" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D132" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E132" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F132" s="2">
-        <v>0.17</v>
+        <v>5.33</v>
       </c>
       <c r="G132" s="2">
-        <v>0.06</v>
+        <v>3.95</v>
       </c>
       <c r="H132" s="2">
-        <v>0.16</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I132" s="2">
-        <v>95.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="J132" s="2">
-        <v>329.2</v>
+        <v>602</v>
       </c>
       <c r="K132" s="2">
         <v>0</v>
       </c>
       <c r="L132" s="2">
-        <v>16.3</v>
+        <v>13.3</v>
       </c>
       <c r="M132" s="2">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="N132" s="2">
-        <v>46.7</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="133" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D133" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E133" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F133" s="2">
-        <v>0.3</v>
+        <v>6.87</v>
       </c>
       <c r="G133" s="2">
-        <v>0.14000000000000001</v>
+        <v>4.71</v>
       </c>
       <c r="H133" s="2">
-        <v>0.18</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="I133" s="2">
-        <v>94</v>
+        <v>12.8</v>
       </c>
       <c r="J133" s="2">
-        <v>317.60000000000002</v>
+        <v>595.9</v>
       </c>
       <c r="K133" s="2">
         <v>0</v>
       </c>
       <c r="L133" s="2">
-        <v>15.7</v>
+        <v>14.2</v>
       </c>
       <c r="M133" s="2">
-        <v>1</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="N133" s="2">
-        <v>46.2</v>
+        <v>76.900000000000006</v>
       </c>
     </row>
     <row r="134" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D134" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E134" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F134" s="2">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="G134" s="2">
-        <v>0.21</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H134" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I134" s="2">
         <v>100</v>
       </c>
       <c r="J134" s="2">
-        <v>331.9</v>
+        <v>783.6</v>
       </c>
       <c r="K134" s="2">
         <v>0</v>
       </c>
       <c r="L134" s="2">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="M134" s="2">
-        <v>1.3</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="N134" s="2">
-        <v>49.6</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="135" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D135" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E135" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F135" s="2">
-        <v>0.42</v>
+        <v>11.98</v>
       </c>
       <c r="G135" s="2">
-        <v>0.31</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="H135" s="2">
-        <v>0.24</v>
+        <v>1.79</v>
       </c>
       <c r="I135" s="2">
-        <v>97.9</v>
+        <v>0</v>
       </c>
       <c r="J135" s="2">
-        <v>315.7</v>
+        <v>1232.4000000000001</v>
       </c>
       <c r="K135" s="2">
         <v>0</v>
       </c>
       <c r="L135" s="2">
-        <v>19.899999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="M135" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="N135" s="2">
-        <v>45.2</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="136" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D136" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E136" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F136" s="2">
-        <v>0.27</v>
+        <v>13.81</v>
       </c>
       <c r="G136" s="2">
-        <v>0.31</v>
+        <v>6.47</v>
       </c>
       <c r="H136" s="2">
-        <v>0.25</v>
+        <v>2.64</v>
       </c>
       <c r="I136" s="2">
-        <v>100</v>
+        <v>10.4</v>
       </c>
       <c r="J136" s="2">
-        <v>317.39999999999998</v>
+        <v>1571.7</v>
       </c>
       <c r="K136" s="2">
         <v>0</v>
@@ -11263,205 +17411,317 @@
         <v>12.1</v>
       </c>
       <c r="M136" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="N136" s="2">
-        <v>44.3</v>
+        <v>67.2</v>
       </c>
     </row>
-    <row r="140" spans="4:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="E140" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" s="1" t="s">
+    <row r="137" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D137" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137" s="2">
+        <v>4</v>
+      </c>
+      <c r="F137" s="2">
+        <v>8.64</v>
+      </c>
+      <c r="G137" s="2">
+        <v>6.77</v>
+      </c>
+      <c r="H137" s="2">
+        <v>3.07</v>
+      </c>
+      <c r="I137" s="2">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2">
+        <v>1632.2</v>
+      </c>
+      <c r="K137" s="2">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2">
+        <v>16</v>
+      </c>
+      <c r="M137" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="N137" s="2">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="138" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D138" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" s="2">
+        <v>5</v>
+      </c>
+      <c r="F138" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="G138" s="2">
+        <v>9.27</v>
+      </c>
+      <c r="H138" s="2">
+        <v>4.22</v>
+      </c>
+      <c r="I138" s="2">
+        <v>68.3</v>
+      </c>
+      <c r="J138" s="2">
+        <v>1605.8</v>
+      </c>
+      <c r="K138" s="2">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="M138" s="2">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="N138" s="2">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="141" spans="4:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="D141" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="F141" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H140" s="1" t="s">
+      <c r="G141" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I140" s="1" t="s">
+      <c r="H141" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J140" s="1" t="s">
+      <c r="I141" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K140" s="1" t="s">
+      <c r="J141" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L140" s="1" t="s">
+      <c r="K141" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M140" s="1" t="s">
+      <c r="L141" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N140" s="1" t="s">
+      <c r="M141" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D141" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E141" s="2">
-        <v>1</v>
-      </c>
-      <c r="F141" s="2">
-        <v>1.24</v>
-      </c>
-      <c r="G141" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H141" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I141" s="2">
-        <v>100</v>
-      </c>
-      <c r="J141" s="2">
-        <v>783.6</v>
-      </c>
-      <c r="K141" s="2">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2">
-        <v>12.4</v>
-      </c>
-      <c r="M141" s="2">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="N141" s="2">
-        <v>52.5</v>
       </c>
     </row>
     <row r="142" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E142" s="2">
-        <v>2</v>
-      </c>
-      <c r="F142" s="2">
-        <v>11.98</v>
-      </c>
-      <c r="G142" s="2">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="H142" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="I142" s="2">
+      <c r="D142" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142">
+        <f>AVERAGE(F114:F118)</f>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="F142">
+        <f t="shared" ref="F142:M142" si="0">AVERAGE(G114:G118)</f>
+        <v>0.20600000000000002</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="0"/>
+        <v>0.20600000000000002</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="0"/>
+        <v>97.5</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="0"/>
+        <v>322.35999999999996</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J142" s="2">
-        <v>1232.4000000000001</v>
-      </c>
-      <c r="K142" s="2">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2">
-        <v>11.8</v>
-      </c>
-      <c r="M142" s="2">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="N142" s="2">
-        <v>61.8</v>
+      <c r="K142">
+        <f t="shared" si="0"/>
+        <v>15.259999999999996</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="0"/>
+        <v>1.1800000000000002</v>
+      </c>
+      <c r="M142">
+        <f t="shared" si="0"/>
+        <v>46.4</v>
       </c>
     </row>
     <row r="143" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E143" s="2">
-        <v>3</v>
-      </c>
-      <c r="F143" s="2">
-        <v>13.81</v>
-      </c>
-      <c r="G143" s="2">
-        <v>6.47</v>
-      </c>
-      <c r="H143" s="2">
-        <v>2.64</v>
-      </c>
-      <c r="I143" s="2">
-        <v>10.4</v>
-      </c>
-      <c r="J143" s="2">
-        <v>1571.7</v>
-      </c>
-      <c r="K143" s="2">
+      <c r="D143" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E143">
+        <f>AVERAGE(F119:F123)</f>
+        <v>0.81600000000000006</v>
+      </c>
+      <c r="F143">
+        <f t="shared" ref="F143:M143" si="1">AVERAGE(G119:G123)</f>
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="1"/>
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="1"/>
+        <v>83.08</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="1"/>
+        <v>337.21999999999997</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L143" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="M143" s="2">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="N143" s="2">
-        <v>67.2</v>
+      <c r="K143">
+        <f t="shared" si="1"/>
+        <v>17.619999999999997</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="1"/>
+        <v>42.42</v>
       </c>
     </row>
     <row r="144" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E144" s="2">
-        <v>4</v>
-      </c>
-      <c r="F144" s="2">
-        <v>8.64</v>
-      </c>
-      <c r="G144" s="2">
-        <v>6.77</v>
-      </c>
-      <c r="H144" s="2">
-        <v>3.07</v>
-      </c>
-      <c r="I144" s="2">
+      <c r="D144" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E144">
+        <f>AVERAGE(F124:F128)</f>
+        <v>1.8780000000000001</v>
+      </c>
+      <c r="F144">
+        <f t="shared" ref="F144:M144" si="2">AVERAGE(G124:G128)</f>
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="2"/>
+        <v>46.980000000000004</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="2"/>
+        <v>319.29999999999995</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J144" s="2">
-        <v>1632.2</v>
-      </c>
-      <c r="K144" s="2">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2">
-        <v>16</v>
-      </c>
-      <c r="M144" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="N144" s="2">
-        <v>64.7</v>
+      <c r="K144">
+        <f t="shared" si="2"/>
+        <v>17.78</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="2"/>
+        <v>0.80619999999999992</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="2"/>
+        <v>60.44</v>
       </c>
     </row>
     <row r="145" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E145" s="2">
-        <v>5</v>
-      </c>
-      <c r="F145" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="G145" s="2">
-        <v>9.27</v>
-      </c>
-      <c r="H145" s="2">
-        <v>4.22</v>
-      </c>
-      <c r="I145" s="2">
-        <v>68.3</v>
-      </c>
-      <c r="J145" s="2">
-        <v>1605.8</v>
-      </c>
-      <c r="K145" s="2">
+      <c r="D145" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E145">
+        <f>AVERAGE(F129:F133)</f>
+        <v>4.7839999999999998</v>
+      </c>
+      <c r="F145">
+        <f t="shared" ref="F145:M145" si="3">AVERAGE(G129:G133)</f>
+        <v>3.4660000000000002</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="3"/>
+        <v>1.716</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="3"/>
+        <v>31.920000000000005</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="3"/>
+        <v>539.72</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L145" s="2">
-        <v>13.4</v>
-      </c>
-      <c r="M145" s="2">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="N145" s="2">
-        <v>67.2</v>
+      <c r="K145">
+        <f t="shared" si="3"/>
+        <v>17.14</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="3"/>
+        <v>1.0064</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="3"/>
+        <v>69.58</v>
+      </c>
+    </row>
+    <row r="146" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D146" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E146">
+        <f>AVERAGE(F134:F138)</f>
+        <v>10.234</v>
+      </c>
+      <c r="F146">
+        <f t="shared" ref="F146:M146" si="4">AVERAGE(G134:G138)</f>
+        <v>5.6519999999999992</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="4"/>
+        <v>2.444</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="4"/>
+        <v>35.739999999999995</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="4"/>
+        <v>1365.1399999999999</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="4"/>
+        <v>13.14</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="4"/>
+        <v>0.83420000000000005</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="4"/>
+        <v>62.679999999999993</v>
       </c>
     </row>
     <row r="149" spans="4:14" ht="45" x14ac:dyDescent="0.25">
@@ -11496,171 +17756,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D150" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E150" s="2">
-        <v>1</v>
-      </c>
-      <c r="F150" s="2">
-        <v>0</v>
-      </c>
-      <c r="G150" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="H150" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="I150" s="2">
-        <v>100</v>
-      </c>
-      <c r="J150" s="2">
-        <v>318.89999999999998</v>
-      </c>
-      <c r="K150" s="2">
-        <v>0</v>
-      </c>
-      <c r="L150" s="2">
-        <v>35.5</v>
-      </c>
-      <c r="M150" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="N150" s="2">
-        <v>40.9</v>
-      </c>
-    </row>
-    <row r="151" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E151" s="2">
-        <v>2</v>
-      </c>
-      <c r="F151" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="G151" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="H151" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="I151" s="2">
-        <v>73.3</v>
-      </c>
-      <c r="J151" s="2">
-        <v>340.9</v>
-      </c>
-      <c r="K151" s="2">
-        <v>0</v>
-      </c>
-      <c r="L151" s="2">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="M151" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="N151" s="2">
-        <v>39.4</v>
-      </c>
-    </row>
-    <row r="152" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E152" s="2">
-        <v>3</v>
-      </c>
-      <c r="F152" s="2">
-        <v>1.17</v>
-      </c>
-      <c r="G152" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H152" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="I152" s="2">
-        <v>72.7</v>
-      </c>
-      <c r="J152" s="2">
-        <v>355.2</v>
-      </c>
-      <c r="K152" s="2">
-        <v>0</v>
-      </c>
-      <c r="L152" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="M152" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="N152" s="2">
-        <v>47.2</v>
-      </c>
-    </row>
-    <row r="153" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E153" s="2">
-        <v>4</v>
-      </c>
-      <c r="F153" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G153" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="H153" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="I153" s="2">
-        <v>97.7</v>
-      </c>
-      <c r="J153" s="2">
-        <v>324.60000000000002</v>
-      </c>
-      <c r="K153" s="2">
-        <v>0</v>
-      </c>
-      <c r="L153" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="M153" s="2">
-        <v>1</v>
-      </c>
-      <c r="N153" s="2">
-        <v>41.3</v>
-      </c>
-    </row>
-    <row r="154" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E154" s="2">
-        <v>5</v>
-      </c>
-      <c r="F154" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="G154" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="H154" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="I154" s="2">
-        <v>71.7</v>
-      </c>
-      <c r="J154" s="2">
-        <v>346.5</v>
-      </c>
-      <c r="K154" s="2">
-        <v>0</v>
-      </c>
-      <c r="L154" s="2">
-        <v>12</v>
-      </c>
-      <c r="M154" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N154" s="2">
-        <v>43.3</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>